--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1AFBE-8533-4D4B-93F9-AEC5EA4C2100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C72A5-D382-4E23-AB19-ADF2F8A065C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t xml:space="preserve">委托书 </t>
   </si>
@@ -291,9 +291,6 @@
     <t>驱动形式</t>
   </si>
   <si>
-    <t>需要找子表</t>
-  </si>
-  <si>
     <t>airSupethod</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>进气方式</t>
   </si>
   <si>
-    <t>查不到，手工填</t>
-  </si>
-  <si>
     <t>crosght</t>
   </si>
   <si>
@@ -396,9 +390,6 @@
     <t>机械连接装置型号</t>
   </si>
   <si>
-    <t>拍照取，尝试找</t>
-  </si>
-  <si>
     <t>转向轴数量</t>
   </si>
   <si>
@@ -415,13 +406,82 @@
   </si>
   <si>
     <t>挂车设计最高车速（km/h）</t>
+  </si>
+  <si>
+    <t>车辆所属类别</t>
+  </si>
+  <si>
+    <t>轴数</t>
+  </si>
+  <si>
+    <t>保险终止日期</t>
+  </si>
+  <si>
+    <t>轴距</t>
+  </si>
+  <si>
+    <t>车身颜色</t>
+  </si>
+  <si>
+    <t>前轮距</t>
+  </si>
+  <si>
+    <t>后轮距</t>
+  </si>
+  <si>
+    <t>驻车轴数</t>
+  </si>
+  <si>
+    <t>驻车轴位</t>
+  </si>
+  <si>
+    <t>主轴数</t>
+  </si>
+  <si>
+    <t>前照灯制</t>
+  </si>
+  <si>
+    <t>制动力源</t>
+  </si>
+  <si>
+    <t>远光单独调整</t>
+  </si>
+  <si>
+    <t>转向轴（前轴）悬架形式</t>
+  </si>
+  <si>
+    <t>里程表读数</t>
+  </si>
+  <si>
+    <t>车辆用途</t>
+  </si>
+  <si>
+    <t>用途属性</t>
+  </si>
+  <si>
+    <t>排量</t>
+  </si>
+  <si>
+    <t>手工填</t>
+  </si>
+  <si>
+    <t>需要找对应</t>
+  </si>
+  <si>
+    <t>zqyzl	准牵引总质量</t>
+  </si>
+  <si>
+    <t>ltgg	轮胎规格</t>
+  </si>
+  <si>
+    <t>3、轮胎数量（2/4、2/2/4、2/4/4、2/2/4/4)可选择填写</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,27 +498,32 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
+      <name val="华文中宋"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -594,31 +659,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,19 +701,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -922,18 +990,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="31.77734375" style="12" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="12" customWidth="1"/>
   </cols>
@@ -978,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
@@ -987,11 +1055,11 @@
         <v>43</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1001,11 +1069,11 @@
         <v>44</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1017,11 +1085,11 @@
         <v>45</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1033,11 +1101,11 @@
         <v>46</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1047,11 +1115,11 @@
         <v>47</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1059,13 +1127,15 @@
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1075,11 +1145,11 @@
         <v>63</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1089,11 +1159,11 @@
         <v>50</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1103,53 +1173,55 @@
         <v>48</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="6"/>
+      <c r="E17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="C18" s="6"/>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1161,65 +1233,73 @@
         <v>52</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C21" s="6"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="F21" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="C22" s="6"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="C23" s="6"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="C24" s="6"/>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1229,11 +1309,11 @@
         <v>53</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1243,15 +1323,13 @@
         <v>54</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -1261,15 +1339,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1279,137 +1355,149 @@
         <v>87</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="E28" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="E29" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="17" t="s">
+      <c r="E29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="C30" s="6"/>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="E31" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="C32" s="6"/>
-      <c r="E32" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="18"/>
+      <c r="E32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="C33" s="6"/>
-      <c r="E33" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>90</v>
-      </c>
+      <c r="E33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="C34" s="6"/>
-      <c r="E34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="C35" s="6"/>
-      <c r="E35" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>90</v>
+      <c r="E35" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="C36" s="6"/>
-      <c r="E36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="18"/>
+      <c r="E36" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1419,14 +1507,14 @@
         <v>56</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="E37" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>90</v>
+      <c r="E37" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,15 +1525,15 @@
         <v>57</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="E38" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -1453,17 +1541,17 @@
         <v>58</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="E39" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -1471,13 +1559,11 @@
         <v>59</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>90</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -1487,11 +1573,11 @@
         <v>60</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="18"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
@@ -1501,11 +1587,13 @@
         <v>61</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="18"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -1515,79 +1603,94 @@
         <v>62</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="18"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="C44" s="6"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="18"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="C45" s="6"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="23"/>
+      <c r="F45" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C46" s="9"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="23"/>
+      <c r="F47" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="23"/>
+      <c r="F48" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="23"/>
+      <c r="F49" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="16"/>
-      <c r="F47" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="16"/>
-      <c r="F48" s="17" t="s">
+    </row>
+    <row r="50" spans="5:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="27"/>
+      <c r="F50" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="16"/>
-      <c r="F49" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="24"/>
-      <c r="F50" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="26"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="12" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C72A5-D382-4E23-AB19-ADF2F8A065C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3702D-8351-4C07-A600-BEA9649DB08D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="298">
   <si>
     <t xml:space="preserve">委托书 </t>
   </si>
@@ -159,9 +168,6 @@
     <t>车辆识别代号</t>
   </si>
   <si>
-    <t>品牌型号</t>
-  </si>
-  <si>
     <t>号牌种类</t>
   </si>
   <si>
@@ -475,13 +481,478 @@
   </si>
   <si>
     <t>3、轮胎数量（2/4、2/2/4、2/4/4、2/2/4/4)可选择填写</t>
+  </si>
+  <si>
+    <t>机动车序号</t>
+  </si>
+  <si>
+    <t>数据字段</t>
+  </si>
+  <si>
+    <t>华研数据库</t>
+  </si>
+  <si>
+    <t>赛斯数据库</t>
+  </si>
+  <si>
+    <t>公安网接口</t>
+  </si>
+  <si>
+    <t>中文字段解释</t>
+  </si>
+  <si>
+    <t>最终完整数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>${SYXZ}</t>
+  </si>
+  <si>
+    <t>是否四驱</t>
+  </si>
+  <si>
+    <t>${SFSQ}</t>
+  </si>
+  <si>
+    <t>${ZXZSL}</t>
+  </si>
+  <si>
+    <t>是否驻车制动</t>
+  </si>
+  <si>
+    <t>${ZCZD}</t>
+  </si>
+  <si>
+    <t>是否空气悬挂</t>
+  </si>
+  <si>
+    <t>${KQXG}</t>
+  </si>
+  <si>
+    <t>${QDXS}</t>
+  </si>
+  <si>
+    <t>${DPXH}</t>
+  </si>
+  <si>
+    <t>LTGG</t>
+  </si>
+  <si>
+    <t>中文字段名</t>
+  </si>
+  <si>
+    <t>赛斯接口</t>
+  </si>
+  <si>
+    <t>数据示例</t>
+  </si>
+  <si>
+    <t>车辆所有人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>通讯地址</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>最大设计总质量</t>
+  </si>
+  <si>
+    <t>燃油型式</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>载客人数</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>外廓尺寸长</t>
+  </si>
+  <si>
+    <t>外廓尺寸宽</t>
+  </si>
+  <si>
+    <t>外廓尺寸高</t>
+  </si>
+  <si>
+    <t>hpzl</t>
+  </si>
+  <si>
+    <t>hphm</t>
+  </si>
+  <si>
+    <t>clpp1</t>
+  </si>
+  <si>
+    <t>clxh</t>
+  </si>
+  <si>
+    <t>zzcmc</t>
+  </si>
+  <si>
+    <t>clsbdh</t>
+  </si>
+  <si>
+    <t>fdjh</t>
+  </si>
+  <si>
+    <t>cllx</t>
+  </si>
+  <si>
+    <t>csys</t>
+  </si>
+  <si>
+    <t>syxz</t>
+  </si>
+  <si>
+    <t>syr</t>
+  </si>
+  <si>
+    <t>ccdjrq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发动机型号  </t>
+  </si>
+  <si>
+    <t>fdjxh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>rlzl</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>cwkc</t>
+  </si>
+  <si>
+    <t>cwkk</t>
+  </si>
+  <si>
+    <t>cwkg</t>
+  </si>
+  <si>
+    <t>货厢栏板内尺寸长</t>
+  </si>
+  <si>
+    <t>货厢栏板内尺寸宽</t>
+  </si>
+  <si>
+    <t>货厢栏板内尺寸高</t>
+  </si>
+  <si>
+    <t>hxnbcd</t>
+  </si>
+  <si>
+    <t>hxnbkd</t>
+  </si>
+  <si>
+    <t>hxnbgd</t>
+  </si>
+  <si>
+    <t>zs</t>
+  </si>
+  <si>
+    <t>zj</t>
+  </si>
+  <si>
+    <t>lts</t>
+  </si>
+  <si>
+    <t>ltgg</t>
+  </si>
+  <si>
+    <t>zzl</t>
+  </si>
+  <si>
+    <t>zbzl</t>
+  </si>
+  <si>
+    <t>hdzk</t>
+  </si>
+  <si>
+    <t>对应数据</t>
+  </si>
+  <si>
+    <t>${owner}</t>
+  </si>
+  <si>
+    <t>${platnum}</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>PZLBStr</t>
+  </si>
+  <si>
+    <t>Carcolor</t>
+  </si>
+  <si>
+    <t>SYXZStr</t>
+  </si>
+  <si>
+    <t>DLYSZH</t>
+  </si>
+  <si>
+    <t>MakeDate</t>
+  </si>
+  <si>
+    <t>DJDate</t>
+  </si>
+  <si>
+    <t>Kilocount</t>
+  </si>
+  <si>
+    <t>ZCZL</t>
+  </si>
+  <si>
+    <t>FDJXH</t>
+  </si>
+  <si>
+    <t>EDGL</t>
+  </si>
+  <si>
+    <t>DPH</t>
+  </si>
+  <si>
+    <t>CLLBXStr</t>
+  </si>
+  <si>
+    <t>MaxSpeed</t>
+  </si>
+  <si>
+    <t>ZCCD</t>
+  </si>
+  <si>
+    <t>ZCKD</t>
+  </si>
+  <si>
+    <t>ZCGD</t>
+  </si>
+  <si>
+    <t>ZKRS</t>
+  </si>
+  <si>
+    <t>${tel}</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>${postcode}</t>
+  </si>
+  <si>
+    <t>${brand}</t>
+  </si>
+  <si>
+    <t>${XH}</t>
+  </si>
+  <si>
+    <t>${vehicleType}</t>
+  </si>
+  <si>
+    <t>${usage}</t>
+  </si>
+  <si>
+    <t>${CCDJRQ}</t>
+  </si>
+  <si>
+    <t>${FDJH}</t>
+  </si>
+  <si>
+    <t>${ZBZL}</t>
+  </si>
+  <si>
+    <t>${DLYSZH}</t>
+  </si>
+  <si>
+    <t>道路运输证号</t>
+  </si>
+  <si>
+    <t>${CLCCRQ}</t>
+  </si>
+  <si>
+    <t>是否适时四驱</t>
+  </si>
+  <si>
+    <t>是否驻车制动电子装置</t>
+  </si>
+  <si>
+    <t>是否配备空气悬挂</t>
+  </si>
+  <si>
+    <t>${factoryName}</t>
+  </si>
+  <si>
+    <t>${posite}</t>
+  </si>
+  <si>
+    <t>${airSupethod}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${JZZZ} </t>
+  </si>
+  <si>
+    <t>${fuelSupplyMethod}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${PL} </t>
+  </si>
+  <si>
+    <t>${fuelType}</t>
+  </si>
+  <si>
+    <t>${ratepeed}</t>
+  </si>
+  <si>
+    <t>${engineModel}</t>
+  </si>
+  <si>
+    <t>${numOfCylinder}</t>
+  </si>
+  <si>
+    <t>${power}</t>
+  </si>
+  <si>
+    <t>${transimissionType}</t>
+  </si>
+  <si>
+    <t>${platType}</t>
+  </si>
+  <si>
+    <t>${today}</t>
+  </si>
+  <si>
+    <t>${ZKRS}</t>
+  </si>
+  <si>
+    <t>外形尺寸</t>
+  </si>
+  <si>
+    <t>${WXCC}</t>
+  </si>
+  <si>
+    <t>${crosght}</t>
+  </si>
+  <si>
+    <t>${LTGG}</t>
+  </si>
+  <si>
+    <t>${ZS}</t>
+  </si>
+  <si>
+    <t>${ZJ}</t>
+  </si>
+  <si>
+    <t>${CSYS}</t>
+  </si>
+  <si>
+    <t>${HXLBNCC}</t>
+  </si>
+  <si>
+    <t>货箱栏板内尺寸</t>
+  </si>
+  <si>
+    <t>${vin}</t>
+  </si>
+  <si>
+    <t>Fuelstr</t>
+  </si>
+  <si>
+    <t>${LTSL}</t>
+  </si>
+  <si>
+    <t>${JXLJZZXH}</t>
+  </si>
+  <si>
+    <t>${ZGCS}</t>
+  </si>
+  <si>
+    <t>${cwkc}</t>
+  </si>
+  <si>
+    <t>${cwkk}</t>
+  </si>
+  <si>
+    <t>${cwkg}</t>
+  </si>
+  <si>
+    <t>${hxnbcd}</t>
+  </si>
+  <si>
+    <t>${hxnbkd}</t>
+  </si>
+  <si>
+    <t>${hxnbgd}</t>
+  </si>
+  <si>
+    <t>ChangPH</t>
+  </si>
+  <si>
+    <t>XingHao</t>
+  </si>
+  <si>
+    <t>ccrq</t>
+  </si>
+  <si>
+    <t>qdxs</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
+    <t>生成整备质量+100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,13 +996,65 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -641,11 +1164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,6 +1230,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,706 +1594,2189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G51"/>
+  <dimension ref="A2:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="31.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="2:8" ht="15.6" thickBot="1"/>
+    <row r="8" spans="2:8">
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="F13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="F14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="F15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="F16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="F17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="F18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="F19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="F20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="F21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="F22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" ht="14.4">
+      <c r="B23" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="F23" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="F24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="F25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="F26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="F27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="F28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.4">
+      <c r="B29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="F29" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="F30" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="F31" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="14.4">
+      <c r="B32" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="F32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="F33" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="F34" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="2:8" ht="14.4">
+      <c r="B35" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="F35" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="F36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="F37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="F38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.6" thickBot="1">
+      <c r="B39" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="F39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.6" thickBot="1">
+      <c r="B40" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.6" thickBot="1">
+      <c r="B46" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="F47" s="22"/>
+      <c r="G47" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="F48" s="22"/>
+      <c r="G48" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="F49" s="22"/>
+      <c r="G49" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.6" thickBot="1">
+      <c r="F50" s="26"/>
+      <c r="G50" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.6" thickBot="1"/>
+    <row r="53" spans="1:8" ht="15.6" thickBot="1">
+      <c r="A53" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="33"/>
+      <c r="B57" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="33"/>
+      <c r="B58" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="33"/>
+      <c r="B59" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="33"/>
+      <c r="B65" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="33"/>
+      <c r="B66" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="33"/>
+      <c r="B67" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="33"/>
+      <c r="B68" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="30"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="33"/>
+      <c r="B69" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="30"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="33"/>
+      <c r="B70" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="33"/>
+      <c r="B71" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="30"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="33"/>
+      <c r="B72" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="33"/>
+      <c r="B73" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="33"/>
+      <c r="B74" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="33"/>
+      <c r="B75" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="30"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="33"/>
+      <c r="B76" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="33"/>
+      <c r="B77" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="30"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="33"/>
+      <c r="B78" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="33"/>
+      <c r="B79" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="33"/>
+      <c r="B80" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="33"/>
+      <c r="B81" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="33"/>
+      <c r="B82" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="33"/>
+      <c r="B83" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="30"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="33"/>
+      <c r="B84" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A85" s="34"/>
+      <c r="B85" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="31"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.6" thickBot="1">
+      <c r="A98" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="E9" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="C101" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="E10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="C102" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="E11" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C103" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="E12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="C107" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="E13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C114" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.6" thickBot="1">
+      <c r="A137" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="50" customFormat="1">
+      <c r="A141" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" s="49"/>
+      <c r="E141" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F141" s="51"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="49"/>
+    </row>
+    <row r="142" spans="1:8" s="50" customFormat="1">
+      <c r="A142" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="49"/>
+      <c r="E142" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F142" s="51"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
+    </row>
+    <row r="143" spans="1:8" s="50" customFormat="1">
+      <c r="A143" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143" s="49"/>
+      <c r="E143" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F143" s="51"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>186</v>
+      </c>
+      <c r="E144" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" s="55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146" s="55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E147" s="55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="46" customFormat="1">
+      <c r="A148" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B148" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="E14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="D148" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F148" s="47"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E149" s="55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>294</v>
+      </c>
+      <c r="E150" s="55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C151" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="E15" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="E16" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="E17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="D151" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="50" customFormat="1">
+      <c r="A152" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="49"/>
+      <c r="E152" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F152" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G152" s="49"/>
+      <c r="H152" s="49"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>185</v>
+      </c>
+      <c r="E153" s="55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>189</v>
+      </c>
+      <c r="E154" s="55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>295</v>
+      </c>
+      <c r="E155" s="55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="50" customFormat="1">
+      <c r="A156" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B156" s="49"/>
+      <c r="E156" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F156" s="51"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="49"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" t="s">
+        <v>216</v>
+      </c>
+      <c r="E157" s="55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="50" customFormat="1">
+      <c r="A158" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" s="49"/>
+      <c r="E158" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="F158" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="50" customFormat="1">
+      <c r="A160" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="49"/>
+      <c r="E160" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="F160" s="51"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" t="s">
+        <v>201</v>
+      </c>
+      <c r="E161" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D162" t="s">
+        <v>198</v>
+      </c>
+      <c r="E162" s="55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="50" customFormat="1">
+      <c r="A163" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="49"/>
+      <c r="E163" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F163" s="51"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="49"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>191</v>
+      </c>
+      <c r="E164" s="55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="50" customFormat="1">
+      <c r="A165" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="49"/>
+      <c r="E165" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="F165" s="51"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>202</v>
+      </c>
+      <c r="E166" s="55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="50" customFormat="1">
+      <c r="A167" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" s="49"/>
+      <c r="E167" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F167" s="51"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>190</v>
+      </c>
+      <c r="E168" s="55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" t="s">
+        <v>192</v>
+      </c>
+      <c r="E169" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="50" customFormat="1">
+      <c r="A171" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171" s="49"/>
+      <c r="D171" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="E171" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="F171" s="51"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+    </row>
+    <row r="172" spans="1:8" s="50" customFormat="1">
+      <c r="A172" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="49"/>
+      <c r="D172" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E172" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F172" s="51"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+    </row>
+    <row r="173" spans="1:8" s="50" customFormat="1">
+      <c r="A173" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" s="49"/>
+      <c r="E173" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F173" s="51"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+    </row>
+    <row r="174" spans="1:8" s="50" customFormat="1">
+      <c r="A174" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B174" s="49"/>
+      <c r="E174" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F174" s="51"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E175" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C176" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" t="s">
+        <v>203</v>
+      </c>
+      <c r="E176" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" t="s">
+        <v>204</v>
+      </c>
+      <c r="E177" s="50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C178" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" t="s">
+        <v>205</v>
+      </c>
+      <c r="E178" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" t="s">
+        <v>209</v>
+      </c>
+      <c r="E179" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" t="s">
+        <v>210</v>
+      </c>
+      <c r="E180" s="50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" t="s">
+        <v>211</v>
+      </c>
+      <c r="E181" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="55" customFormat="1">
+      <c r="A182" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E182" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F182" s="56"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="54"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>212</v>
+      </c>
+      <c r="E183" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="E18" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="E19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="E20" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="E21" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="C184" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D184" t="s">
+        <v>213</v>
+      </c>
+      <c r="E184" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="E22" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="E23" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="E24" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="E25" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="E26" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="E28" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="E30" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="E31" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="E32" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="E33" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="E34" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="E35" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="E36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="E37" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="E38" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="E39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="23"/>
-      <c r="F47" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="23"/>
-      <c r="F48" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="23"/>
-      <c r="F49" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="27"/>
-      <c r="F50" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="12" t="s">
-        <v>144</v>
+      <c r="B185" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D185" t="s">
+        <v>193</v>
+      </c>
+      <c r="E185" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="50" customFormat="1">
+      <c r="A186" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" s="49"/>
+      <c r="E186" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F186" s="51"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+    </row>
+    <row r="187" spans="1:8" s="50" customFormat="1">
+      <c r="A187" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B187" s="49"/>
+      <c r="E187" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F187" s="51"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+    </row>
+    <row r="188" spans="1:8" s="50" customFormat="1">
+      <c r="A188" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" s="49"/>
+      <c r="E188" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F188" s="51"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E189" t="s">
+        <v>273</v>
+      </c>
+      <c r="F189" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" t="s">
+        <v>279</v>
+      </c>
+      <c r="F190" s="20" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3702D-8351-4C07-A600-BEA9649DB08D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FB435-98FC-4A32-AE36-149BAE41EFFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674FB435-98FC-4A32-AE36-149BAE41EFFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66945C87-03D1-45B7-AB7A-DA80C441AFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="309">
   <si>
     <t xml:space="preserve">委托书 </t>
   </si>
@@ -946,6 +946,39 @@
   </si>
   <si>
     <t>生成整备质量+100</t>
+  </si>
+  <si>
+    <t>达标车量编号</t>
+  </si>
+  <si>
+    <t>${DBCLBH}</t>
+  </si>
+  <si>
+    <t>国产进口</t>
+  </si>
+  <si>
+    <t>核定载质量</t>
+  </si>
+  <si>
+    <t>hdzzl</t>
+  </si>
+  <si>
+    <t>${hdzzl}</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>gcjk</t>
+  </si>
+  <si>
+    <t>sfzmhm</t>
+  </si>
+  <si>
+    <t>${sfzmhm}</t>
+  </si>
+  <si>
+    <t>${GCJK}</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H190"/>
+  <dimension ref="A2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3779,6 +3812,51 @@
         <v>296</v>
       </c>
     </row>
+    <row r="191" spans="1:8" s="50" customFormat="1">
+      <c r="A191" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B191" s="49"/>
+      <c r="E191" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="F191" s="51"/>
+      <c r="G191" s="49"/>
+      <c r="H191" s="49"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D192" t="s">
+        <v>305</v>
+      </c>
+      <c r="E192" s="50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D193" t="s">
+        <v>302</v>
+      </c>
+      <c r="E193" s="50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D194" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="50" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66945C87-03D1-45B7-AB7A-DA80C441AFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADA751-22DE-4DF3-BCDC-1EC1FB6B7738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3072" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3420" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1630,7 +1630,7 @@
   <dimension ref="A2:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/resource/file/数据库字段对应.xlsx
+++ b/resource/file/数据库字段对应.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BADA751-22DE-4DF3-BCDC-1EC1FB6B7738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E04451-6D67-449F-9199-13E0B8DBCAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3420" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1629,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
